--- a/data/trans_orig/P33_MIN_2023_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P33_MIN_2023_R-Clase-trans_orig.xlsx
@@ -560,13 +560,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>31.13081913063373</v>
+        <v>31.13081913063372</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>25.66133114122802</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>29.04895332122542</v>
+        <v>29.04895332122543</v>
       </c>
     </row>
     <row r="5">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>26.42205616840903</v>
+        <v>26.14989121674186</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>21.28815071703602</v>
+        <v>21.33673995607988</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>25.76263037794516</v>
+        <v>25.47379821252292</v>
       </c>
     </row>
     <row r="6">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>37.31924028747436</v>
+        <v>36.54746667887965</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>30.38350488588962</v>
+        <v>31.11720773090727</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>33.05699730469016</v>
+        <v>33.3455428114452</v>
       </c>
     </row>
     <row r="7">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>28.80976034338248</v>
+        <v>28.42219870813856</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>23.65614161647939</v>
+        <v>23.66929722307761</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>27.90747228479449</v>
+        <v>27.8164657142313</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>40.41386629385021</v>
+        <v>39.99283289341157</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>34.56386787693519</v>
+        <v>34.70245128908018</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>36.2191558536226</v>
+        <v>36.08790411240573</v>
       </c>
     </row>
     <row r="10">
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>38.65799588067159</v>
+        <v>38.6579958806716</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>30.10530131170343</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>32.36800127589438</v>
+        <v>32.39113773132848</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>23.48961187602444</v>
+        <v>23.13925822642963</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>31.64433624428841</v>
+        <v>31.9800489417442</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>48.74897176818835</v>
+        <v>47.51509069414163</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>37.67837937802002</v>
+        <v>37.15534390489049</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>44.20981543794499</v>
+        <v>45.03540542914791</v>
       </c>
     </row>
     <row r="13">
@@ -728,10 +728,10 @@
         <v>41.81574005400572</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>39.10903828393234</v>
+        <v>39.10903828393233</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>40.90478606765591</v>
+        <v>40.9047860676559</v>
       </c>
     </row>
     <row r="14">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>38.02182678655799</v>
+        <v>38.53667164625087</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>34.22923406990729</v>
+        <v>34.08801604337582</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>37.81483901413524</v>
+        <v>38.01279147941274</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>45.6071022330251</v>
+        <v>45.59873954467699</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>45.32708422193631</v>
+        <v>44.70109376472374</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>43.86680615210428</v>
+        <v>44.38926127998953</v>
       </c>
     </row>
     <row r="16">
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>42.54030039512182</v>
+        <v>42.54030039512183</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>36.53970079017683</v>
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>37.04201029839631</v>
+        <v>37.26696939130532</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>32.79363124277927</v>
+        <v>33.04001373723123</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>36.04914418986326</v>
+        <v>35.97968586240008</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>48.9778321989102</v>
+        <v>48.86628613648416</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>40.34558132130288</v>
+        <v>40.43440536398028</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>42.68316750364627</v>
+        <v>43.0108368022633</v>
       </c>
     </row>
     <row r="19">
@@ -835,13 +835,13 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>29.97216009780469</v>
+        <v>29.97216009780468</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>46.95786006700317</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>45.51273582942443</v>
+        <v>45.51273582942444</v>
       </c>
     </row>
     <row r="20">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>11.42506496563678</v>
+        <v>14.23999236766545</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>41.35141343737617</v>
+        <v>41.1086719905435</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>39.8005520992704</v>
+        <v>39.98457664582762</v>
       </c>
     </row>
     <row r="21">
@@ -869,13 +869,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>49.93080921301389</v>
+        <v>52.63908336871177</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>54.65872174665144</v>
+        <v>54.35257894942097</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>53.31117072653585</v>
+        <v>52.99921591768211</v>
       </c>
     </row>
     <row r="22">
@@ -896,7 +896,7 @@
         <v>37.41352420462301</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>37.84774572524457</v>
+        <v>37.84774572524458</v>
       </c>
     </row>
     <row r="23">
@@ -907,13 +907,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>36.05570735257612</v>
+        <v>35.88250282757873</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>35.05298990213202</v>
+        <v>35.2263832741825</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>36.1661558354116</v>
+        <v>36.2180640563036</v>
       </c>
     </row>
     <row r="24">
@@ -924,13 +924,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>40.71828130828083</v>
+        <v>40.94127219461692</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>39.93625075005107</v>
+        <v>40.44541993958227</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>39.81712118341408</v>
+        <v>39.59613503986722</v>
       </c>
     </row>
     <row r="25">
